--- a/BDTesis-DLA.xlsx
+++ b/BDTesis-DLA.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\OLID JP\Proyecto de tesis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\OLID JP\GitHub Repositorio\Practicando-R\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E33BF67F-69CB-48A3-BE3D-60E2490F55AA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77FC322E-0E67-474A-9681-C5BEBC8DDB97}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E572D2CA-CBE9-48EC-9257-4C40B3DF4F72}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$AX$302</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -33,16 +36,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="953" uniqueCount="69">
   <si>
-    <t>M</t>
-  </si>
-  <si>
     <t>VI</t>
   </si>
   <si>
     <t>Arqueología</t>
-  </si>
-  <si>
-    <t>F</t>
   </si>
   <si>
     <t>II</t>
@@ -238,6 +235,12 @@
   </si>
   <si>
     <t>ITEM45</t>
+  </si>
+  <si>
+    <t>Masculino</t>
+  </si>
+  <si>
+    <t>Femenino</t>
   </si>
 </sst>
 </file>
@@ -615,162 +618,163 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E9DA61E-90FB-4AB3-983D-FE90D47EE1BB}">
   <dimension ref="A1:AX302"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="39" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AS1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AT1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AU1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AV1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AW1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="AX1" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="AW1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AX1" s="1" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:50" x14ac:dyDescent="0.25">
@@ -778,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="C2" s="2">
         <v>20</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2" s="2">
         <v>3</v>
@@ -930,16 +934,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>3</v>
+        <v>68</v>
       </c>
       <c r="C3" s="2">
         <v>20</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3" s="2">
         <v>3</v>
@@ -1082,16 +1086,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>3</v>
+        <v>68</v>
       </c>
       <c r="C4" s="2">
         <v>18</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4" s="2">
         <v>2</v>
@@ -1234,16 +1238,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="C5" s="2">
         <v>17</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5" s="2">
         <v>2</v>
@@ -1386,16 +1390,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>3</v>
+        <v>68</v>
       </c>
       <c r="C6" s="2">
         <v>18</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6" s="2">
         <v>2</v>
@@ -1538,16 +1542,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="C7" s="2">
         <v>19</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7" s="2">
         <v>4</v>
@@ -1690,16 +1694,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>3</v>
+        <v>68</v>
       </c>
       <c r="C8" s="2">
         <v>18</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F8" s="2">
         <v>2</v>
@@ -1842,16 +1846,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>3</v>
+        <v>68</v>
       </c>
       <c r="C9" s="2">
         <v>19</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F9" s="2">
         <v>3</v>
@@ -1994,16 +1998,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>3</v>
+        <v>68</v>
       </c>
       <c r="C10" s="2">
         <v>17</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F10" s="2">
         <v>2</v>
@@ -2146,16 +2150,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>3</v>
+        <v>68</v>
       </c>
       <c r="C11" s="2">
         <v>19</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F11" s="2">
         <v>2</v>
@@ -2298,16 +2302,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>3</v>
+        <v>68</v>
       </c>
       <c r="C12" s="2">
         <v>18</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12" s="2">
         <v>3</v>
@@ -2450,16 +2454,16 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>3</v>
+        <v>68</v>
       </c>
       <c r="C13" s="2">
         <v>17</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13" s="2">
         <v>2</v>
@@ -2602,16 +2606,16 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>3</v>
+        <v>68</v>
       </c>
       <c r="C14" s="2">
         <v>19</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14" s="2">
         <v>4</v>
@@ -2754,16 +2758,16 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="C15" s="2">
         <v>18</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15" s="2">
         <v>3</v>
@@ -2906,16 +2910,16 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>3</v>
+        <v>68</v>
       </c>
       <c r="C16" s="2">
         <v>18</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16" s="2">
         <v>2</v>
@@ -3058,16 +3062,16 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>3</v>
+        <v>68</v>
       </c>
       <c r="C17" s="2">
         <v>20</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F17" s="2">
         <v>4</v>
@@ -3210,16 +3214,16 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="C18" s="2">
         <v>19</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F18" s="2">
         <v>3</v>
@@ -3362,16 +3366,16 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="C19" s="2">
         <v>21</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F19" s="2">
         <v>2</v>
@@ -3514,16 +3518,16 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="C20" s="2">
         <v>20</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F20" s="2">
         <v>3</v>
@@ -3666,16 +3670,16 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="C21" s="2">
         <v>20</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F21" s="2">
         <v>2</v>
@@ -3818,16 +3822,16 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="C22" s="2">
         <v>26</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F22" s="2">
         <v>2</v>
@@ -3970,16 +3974,16 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="C23" s="2">
         <v>25</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F23" s="2">
         <v>2</v>
@@ -4122,16 +4126,16 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>3</v>
+        <v>68</v>
       </c>
       <c r="C24" s="2">
         <v>22</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F24" s="2">
         <v>3</v>
@@ -4274,16 +4278,16 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="C25" s="2">
         <v>26</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F25" s="2">
         <v>3</v>
@@ -4426,16 +4430,16 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>3</v>
+        <v>68</v>
       </c>
       <c r="C26" s="2">
         <v>18</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F26" s="2">
         <v>4</v>
@@ -4578,16 +4582,16 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>3</v>
+        <v>68</v>
       </c>
       <c r="C27" s="2">
         <v>23</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F27" s="2">
         <v>3</v>
@@ -4730,16 +4734,16 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="C28" s="2">
         <v>26</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F28" s="2">
         <v>4</v>
@@ -4882,16 +4886,16 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>3</v>
+        <v>68</v>
       </c>
       <c r="C29" s="2">
         <v>19</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F29" s="2">
         <v>3</v>
@@ -5034,16 +5038,16 @@
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>3</v>
+        <v>68</v>
       </c>
       <c r="C30" s="2">
         <v>18</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F30" s="2">
         <v>3</v>
@@ -5186,16 +5190,16 @@
         <v>1</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>3</v>
+        <v>68</v>
       </c>
       <c r="C31" s="2">
         <v>27</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F31" s="2">
         <v>2</v>
@@ -5338,16 +5342,16 @@
         <v>2</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>3</v>
+        <v>68</v>
       </c>
       <c r="C32" s="2">
         <v>20</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F32" s="2">
         <v>2</v>
@@ -5490,16 +5494,16 @@
         <v>3</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="C33" s="2">
         <v>22</v>
       </c>
       <c r="D33" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E33" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>11</v>
       </c>
       <c r="F33" s="2">
         <v>3</v>
@@ -5642,16 +5646,16 @@
         <v>4</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="C34" s="2">
         <v>18</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F34" s="2">
         <v>1</v>
@@ -5794,16 +5798,16 @@
         <v>5</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="C35" s="2">
         <v>19</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F35" s="2">
         <v>2</v>
@@ -5946,16 +5950,16 @@
         <v>6</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="C36" s="2">
         <v>24</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F36" s="2">
         <v>3</v>
@@ -6098,16 +6102,16 @@
         <v>7</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>3</v>
+        <v>68</v>
       </c>
       <c r="C37" s="2">
         <v>19</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F37" s="2">
         <v>3</v>
@@ -6250,16 +6254,16 @@
         <v>8</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>3</v>
+        <v>68</v>
       </c>
       <c r="C38" s="2">
         <v>19</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F38" s="2">
         <v>1</v>
@@ -6402,16 +6406,16 @@
         <v>9</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="C39" s="2">
         <v>18</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F39" s="2">
         <v>2</v>
@@ -6554,16 +6558,16 @@
         <v>10</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>3</v>
+        <v>68</v>
       </c>
       <c r="C40" s="2">
         <v>19</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F40" s="2">
         <v>3</v>
@@ -6706,16 +6710,16 @@
         <v>11</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="C41" s="2">
         <v>18</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F41" s="2">
         <v>2</v>
@@ -6858,16 +6862,16 @@
         <v>12</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>3</v>
+        <v>68</v>
       </c>
       <c r="C42" s="2">
         <v>18</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F42" s="2">
         <v>3</v>
@@ -7010,16 +7014,16 @@
         <v>13</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>3</v>
+        <v>68</v>
       </c>
       <c r="C43" s="2">
         <v>21</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F43" s="2">
         <v>2</v>
@@ -7162,16 +7166,16 @@
         <v>14</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="C44" s="2">
         <v>22</v>
       </c>
       <c r="D44" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E44" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>11</v>
       </c>
       <c r="F44" s="2">
         <v>2</v>
@@ -7314,16 +7318,16 @@
         <v>15</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="C45" s="2">
         <v>25</v>
       </c>
       <c r="D45" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E45" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>11</v>
       </c>
       <c r="F45" s="2">
         <v>2</v>
@@ -7466,16 +7470,16 @@
         <v>16</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>3</v>
+        <v>68</v>
       </c>
       <c r="C46" s="2">
         <v>27</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F46" s="2">
         <v>4</v>
@@ -7618,16 +7622,16 @@
         <v>17</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="C47" s="2">
         <v>26</v>
       </c>
       <c r="D47" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E47" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>11</v>
       </c>
       <c r="F47" s="2">
         <v>3</v>
@@ -7770,16 +7774,16 @@
         <v>18</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="C48" s="2">
         <v>23</v>
       </c>
       <c r="D48" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E48" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>11</v>
       </c>
       <c r="F48" s="2">
         <v>4</v>
@@ -7922,16 +7926,16 @@
         <v>19</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>3</v>
+        <v>68</v>
       </c>
       <c r="C49" s="2">
         <v>24</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F49" s="2">
         <v>2</v>
@@ -8074,16 +8078,16 @@
         <v>20</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>3</v>
+        <v>68</v>
       </c>
       <c r="C50" s="2">
         <v>22</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F50" s="2">
         <v>3</v>
@@ -8226,16 +8230,16 @@
         <v>21</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>3</v>
+        <v>68</v>
       </c>
       <c r="C51" s="2">
         <v>24</v>
       </c>
       <c r="D51" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E51" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>11</v>
       </c>
       <c r="F51" s="2">
         <v>3</v>
@@ -8378,16 +8382,16 @@
         <v>22</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="C52" s="2">
         <v>25</v>
       </c>
       <c r="D52" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E52" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>11</v>
       </c>
       <c r="F52" s="2">
         <v>2</v>
@@ -8530,16 +8534,16 @@
         <v>23</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="C53" s="2">
         <v>26</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F53" s="2">
         <v>2</v>
@@ -8682,16 +8686,16 @@
         <v>24</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="C54" s="2">
         <v>24</v>
       </c>
       <c r="D54" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E54" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>11</v>
       </c>
       <c r="F54" s="2">
         <v>3</v>
@@ -8834,16 +8838,16 @@
         <v>25</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="C55" s="2">
         <v>24</v>
       </c>
       <c r="D55" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E55" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>11</v>
       </c>
       <c r="F55" s="2">
         <v>2</v>
@@ -8986,16 +8990,16 @@
         <v>26</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="C56" s="2">
         <v>22</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F56" s="2">
         <v>3</v>
@@ -9138,16 +9142,16 @@
         <v>27</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="C57" s="2">
         <v>20</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F57" s="2">
         <v>3</v>
@@ -9290,16 +9294,16 @@
         <v>28</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="C58" s="2">
         <v>22</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F58" s="2">
         <v>4</v>
@@ -9442,16 +9446,16 @@
         <v>29</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="C59" s="2">
         <v>26</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F59" s="2">
         <v>3</v>
@@ -9594,16 +9598,16 @@
         <v>30</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="C60" s="2">
         <v>25</v>
       </c>
       <c r="D60" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E60" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>11</v>
       </c>
       <c r="F60" s="2">
         <v>3</v>
@@ -9746,16 +9750,16 @@
         <v>31</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="C61" s="2">
         <v>23</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F61" s="2">
         <v>2</v>
@@ -9898,16 +9902,16 @@
         <v>32</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="C62" s="2">
         <v>24</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F62" s="2">
         <v>3</v>
@@ -10050,16 +10054,16 @@
         <v>33</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>3</v>
+        <v>68</v>
       </c>
       <c r="C63" s="2">
         <v>24</v>
       </c>
       <c r="D63" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E63" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>11</v>
       </c>
       <c r="F63" s="2">
         <v>2</v>
@@ -10202,16 +10206,16 @@
         <v>34</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>3</v>
+        <v>68</v>
       </c>
       <c r="C64" s="2">
         <v>25</v>
       </c>
       <c r="D64" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E64" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>11</v>
       </c>
       <c r="F64" s="2">
         <v>4</v>
@@ -10354,16 +10358,16 @@
         <v>35</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="C65" s="2">
         <v>27</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F65" s="2">
         <v>3</v>
@@ -10506,16 +10510,16 @@
         <v>36</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>3</v>
+        <v>68</v>
       </c>
       <c r="C66" s="2">
         <v>22</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F66" s="2">
         <v>2</v>
@@ -10658,16 +10662,16 @@
         <v>37</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>3</v>
+        <v>68</v>
       </c>
       <c r="C67" s="2">
         <v>24</v>
       </c>
       <c r="D67" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E67" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>11</v>
       </c>
       <c r="F67" s="2">
         <v>4</v>
@@ -10810,16 +10814,16 @@
         <v>38</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>3</v>
+        <v>68</v>
       </c>
       <c r="C68" s="2">
         <v>24</v>
       </c>
       <c r="D68" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E68" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>11</v>
       </c>
       <c r="F68" s="2">
         <v>4</v>
@@ -10962,16 +10966,16 @@
         <v>1</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="C69" s="2">
         <v>30</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F69" s="2">
         <v>2</v>
@@ -11114,16 +11118,16 @@
         <v>2</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>3</v>
+        <v>68</v>
       </c>
       <c r="C70" s="2">
         <v>23</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F70" s="2">
         <v>3</v>
@@ -11266,16 +11270,16 @@
         <v>3</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="C71" s="2">
         <v>28</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F71" s="2">
         <v>3</v>
@@ -11418,16 +11422,16 @@
         <v>4</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="C72" s="2">
         <v>30</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F72" s="2">
         <v>3</v>
@@ -11570,16 +11574,16 @@
         <v>5</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>3</v>
+        <v>68</v>
       </c>
       <c r="C73" s="2">
         <v>27</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F73" s="2">
         <v>2</v>
@@ -11722,16 +11726,16 @@
         <v>6</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>3</v>
+        <v>68</v>
       </c>
       <c r="C74" s="2">
         <v>24</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F74" s="2">
         <v>2</v>
@@ -11874,16 +11878,16 @@
         <v>7</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="C75" s="2">
         <v>26</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F75" s="2">
         <v>3</v>
@@ -12026,16 +12030,16 @@
         <v>8</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="C76" s="2">
         <v>27</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F76" s="2">
         <v>2</v>
@@ -12178,16 +12182,16 @@
         <v>1</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="C77" s="2">
         <v>22</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F77" s="2">
         <v>4</v>
@@ -12330,16 +12334,16 @@
         <v>2</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="C78" s="2">
         <v>22</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F78" s="2">
         <v>2</v>
@@ -12482,16 +12486,16 @@
         <v>3</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>3</v>
+        <v>68</v>
       </c>
       <c r="C79" s="2">
         <v>20</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F79" s="2">
         <v>4</v>
@@ -12634,16 +12638,16 @@
         <v>4</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="C80" s="2">
         <v>20</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F80" s="2">
         <v>2</v>
@@ -12786,16 +12790,16 @@
         <v>5</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="C81" s="2">
         <v>27</v>
       </c>
       <c r="D81" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E81" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="E81" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="F81" s="2">
         <v>2</v>
@@ -12938,16 +12942,16 @@
         <v>6</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>3</v>
+        <v>68</v>
       </c>
       <c r="C82" s="2">
         <v>18</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F82" s="2">
         <v>2</v>
@@ -13090,16 +13094,16 @@
         <v>7</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="C83" s="2">
         <v>21</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F83" s="2">
         <v>3</v>
@@ -13242,16 +13246,16 @@
         <v>8</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>3</v>
+        <v>68</v>
       </c>
       <c r="C84" s="2">
         <v>21</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F84" s="2">
         <v>2</v>
@@ -13394,16 +13398,16 @@
         <v>9</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>3</v>
+        <v>68</v>
       </c>
       <c r="C85" s="2">
         <v>19</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F85" s="2">
         <v>3</v>
@@ -13546,16 +13550,16 @@
         <v>10</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="C86" s="2">
         <v>20</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F86" s="2">
         <v>2</v>
@@ -13698,16 +13702,16 @@
         <v>11</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>3</v>
+        <v>68</v>
       </c>
       <c r="C87" s="2">
         <v>19</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F87" s="2">
         <v>2</v>
@@ -13850,16 +13854,16 @@
         <v>12</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>3</v>
+        <v>68</v>
       </c>
       <c r="C88" s="2">
         <v>18</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F88" s="2">
         <v>2</v>
@@ -14002,16 +14006,16 @@
         <v>13</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>3</v>
+        <v>68</v>
       </c>
       <c r="C89" s="2">
         <v>19</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F89" s="2">
         <v>2</v>
@@ -14154,16 +14158,16 @@
         <v>14</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>3</v>
+        <v>68</v>
       </c>
       <c r="C90" s="2">
         <v>19</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F90" s="2">
         <v>2</v>
@@ -14306,16 +14310,16 @@
         <v>15</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>3</v>
+        <v>68</v>
       </c>
       <c r="C91" s="2">
         <v>24</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F91" s="2">
         <v>2</v>
@@ -14458,16 +14462,16 @@
         <v>16</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>3</v>
+        <v>68</v>
       </c>
       <c r="C92" s="2">
         <v>21</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F92" s="2">
         <v>4</v>
@@ -14610,16 +14614,16 @@
         <v>17</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>3</v>
+        <v>68</v>
       </c>
       <c r="C93" s="2">
         <v>20</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F93" s="2">
         <v>3</v>
@@ -14762,16 +14766,16 @@
         <v>18</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>3</v>
+        <v>68</v>
       </c>
       <c r="C94" s="2">
         <v>18</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F94" s="2">
         <v>1</v>
@@ -14914,16 +14918,16 @@
         <v>19</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="C95" s="2">
         <v>20</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F95" s="2">
         <v>2</v>
@@ -15066,16 +15070,16 @@
         <v>20</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>3</v>
+        <v>68</v>
       </c>
       <c r="C96" s="2">
         <v>19</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F96" s="2">
         <v>2</v>
@@ -15218,16 +15222,16 @@
         <v>21</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>3</v>
+        <v>68</v>
       </c>
       <c r="C97" s="2">
         <v>20</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F97" s="2">
         <v>4</v>
@@ -15370,16 +15374,16 @@
         <v>22</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>3</v>
+        <v>68</v>
       </c>
       <c r="C98" s="2">
         <v>19</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F98" s="2">
         <v>2</v>
@@ -15522,16 +15526,16 @@
         <v>23</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="C99" s="2">
         <v>20</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F99" s="2">
         <v>3</v>
@@ -15674,16 +15678,16 @@
         <v>24</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>3</v>
+        <v>68</v>
       </c>
       <c r="C100" s="2">
         <v>19</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F100" s="2">
         <v>2</v>
@@ -15826,16 +15830,16 @@
         <v>25</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>3</v>
+        <v>68</v>
       </c>
       <c r="C101" s="2">
         <v>20</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F101" s="2">
         <v>3</v>
@@ -15978,16 +15982,16 @@
         <v>26</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="C102" s="2">
         <v>25</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F102" s="2">
         <v>3</v>
@@ -16130,16 +16134,16 @@
         <v>27</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>3</v>
+        <v>68</v>
       </c>
       <c r="C103" s="2">
         <v>19</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F103" s="2">
         <v>2</v>
@@ -16282,16 +16286,16 @@
         <v>28</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>3</v>
+        <v>68</v>
       </c>
       <c r="C104" s="2">
         <v>20</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F104" s="2">
         <v>3</v>
@@ -16434,16 +16438,16 @@
         <v>29</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>3</v>
+        <v>68</v>
       </c>
       <c r="C105" s="2">
         <v>18</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F105" s="2">
         <v>1</v>
@@ -16586,16 +16590,16 @@
         <v>30</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="C106" s="2">
         <v>20</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F106" s="2">
         <v>4</v>
@@ -16738,16 +16742,16 @@
         <v>31</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>3</v>
+        <v>68</v>
       </c>
       <c r="C107" s="2">
         <v>26</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F107" s="2">
         <v>1</v>
@@ -16890,16 +16894,16 @@
         <v>32</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="C108" s="2">
         <v>25</v>
       </c>
       <c r="D108" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E108" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="E108" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="F108" s="2">
         <v>3</v>
@@ -17042,16 +17046,16 @@
         <v>33</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="C109" s="2">
         <v>19</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F109" s="2">
         <v>2</v>
@@ -17194,16 +17198,16 @@
         <v>34</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="C110" s="2">
         <v>20</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F110" s="2">
         <v>3</v>
@@ -17346,16 +17350,16 @@
         <v>35</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="C111" s="2">
         <v>20</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F111" s="2">
         <v>2</v>
@@ -17498,16 +17502,16 @@
         <v>36</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="C112" s="2">
         <v>21</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F112" s="2">
         <v>3</v>
@@ -17650,16 +17654,16 @@
         <v>37</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>3</v>
+        <v>68</v>
       </c>
       <c r="C113" s="2">
         <v>19</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F113" s="2">
         <v>2</v>
@@ -17802,16 +17806,16 @@
         <v>38</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>3</v>
+        <v>68</v>
       </c>
       <c r="C114" s="2">
         <v>18</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F114" s="2">
         <v>3</v>
@@ -17954,16 +17958,16 @@
         <v>39</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="C115" s="2">
         <v>22</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F115" s="2">
         <v>2</v>
@@ -18106,16 +18110,16 @@
         <v>40</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>3</v>
+        <v>68</v>
       </c>
       <c r="C116" s="2">
         <v>19</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F116" s="2">
         <v>3</v>
@@ -18258,16 +18262,16 @@
         <v>41</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="C117" s="2">
         <v>23</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F117" s="2">
         <v>3</v>
@@ -18410,7 +18414,7 @@
         <v>42</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="C118" s="2">
         <v>20</v>
@@ -18419,7 +18423,7 @@
         <v>3</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F118" s="2">
         <v>1</v>
@@ -18562,16 +18566,16 @@
         <v>43</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>3</v>
+        <v>68</v>
       </c>
       <c r="C119" s="2">
         <v>18</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F119" s="2">
         <v>3</v>
@@ -18714,16 +18718,16 @@
         <v>44</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>3</v>
+        <v>68</v>
       </c>
       <c r="C120" s="2">
         <v>20</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F120" s="2">
         <v>2</v>
@@ -18866,16 +18870,16 @@
         <v>45</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>3</v>
+        <v>68</v>
       </c>
       <c r="C121" s="2">
         <v>21</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F121" s="2">
         <v>2</v>
@@ -19018,16 +19022,16 @@
         <v>46</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>3</v>
+        <v>68</v>
       </c>
       <c r="C122" s="2">
         <v>24</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F122" s="2">
         <v>2</v>
@@ -19170,16 +19174,16 @@
         <v>1</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="C123" s="2">
         <v>23</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F123" s="2">
         <v>2</v>
@@ -19322,16 +19326,16 @@
         <v>2</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>3</v>
+        <v>68</v>
       </c>
       <c r="C124" s="2">
         <v>25</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F124" s="2">
         <v>3</v>
@@ -19474,16 +19478,16 @@
         <v>3</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>3</v>
+        <v>68</v>
       </c>
       <c r="C125" s="2">
         <v>25</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F125" s="2">
         <v>3</v>
@@ -19626,16 +19630,16 @@
         <v>4</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="C126" s="2">
         <v>21</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F126" s="2">
         <v>3</v>
@@ -19778,16 +19782,16 @@
         <v>5</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="C127" s="2">
         <v>21</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F127" s="2">
         <v>2</v>
@@ -19930,16 +19934,16 @@
         <v>6</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="C128" s="2">
         <v>21</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F128" s="2">
         <v>3</v>
@@ -20082,16 +20086,16 @@
         <v>7</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="C129" s="2">
         <v>23</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F129" s="2">
         <v>2</v>
@@ -20234,16 +20238,16 @@
         <v>8</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>3</v>
+        <v>68</v>
       </c>
       <c r="C130" s="2">
         <v>21</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F130" s="2">
         <v>3</v>
@@ -20386,16 +20390,16 @@
         <v>9</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>3</v>
+        <v>68</v>
       </c>
       <c r="C131" s="2">
         <v>20</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F131" s="2">
         <v>4</v>
@@ -20538,16 +20542,16 @@
         <v>10</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="C132" s="2">
         <v>22</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F132" s="2">
         <v>3</v>
@@ -20690,16 +20694,16 @@
         <v>11</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>3</v>
+        <v>68</v>
       </c>
       <c r="C133" s="2">
         <v>21</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F133" s="2">
         <v>2</v>
@@ -20842,16 +20846,16 @@
         <v>12</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>3</v>
+        <v>68</v>
       </c>
       <c r="C134" s="2">
         <v>19</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F134" s="2">
         <v>3</v>
@@ -20994,16 +20998,16 @@
         <v>13</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="C135" s="2">
         <v>21</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F135" s="2">
         <v>3</v>
@@ -21146,16 +21150,16 @@
         <v>14</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="C136" s="2">
         <v>19</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F136" s="2">
         <v>2</v>
@@ -21298,16 +21302,16 @@
         <v>15</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>3</v>
+        <v>68</v>
       </c>
       <c r="C137" s="2">
         <v>21</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F137" s="2">
         <v>3</v>
@@ -21450,16 +21454,16 @@
         <v>16</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>3</v>
+        <v>68</v>
       </c>
       <c r="C138" s="2">
         <v>20</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F138" s="2">
         <v>3</v>
@@ -21602,16 +21606,16 @@
         <v>17</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>3</v>
+        <v>68</v>
       </c>
       <c r="C139" s="2">
         <v>20</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F139" s="2">
         <v>2</v>
@@ -21754,16 +21758,16 @@
         <v>18</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>3</v>
+        <v>68</v>
       </c>
       <c r="C140" s="2">
         <v>21</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F140" s="2">
         <v>2</v>
@@ -21906,16 +21910,16 @@
         <v>19</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>3</v>
+        <v>68</v>
       </c>
       <c r="C141" s="2">
         <v>19</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F141" s="2">
         <v>2</v>
@@ -22058,16 +22062,16 @@
         <v>20</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>3</v>
+        <v>68</v>
       </c>
       <c r="C142" s="2">
         <v>20</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F142" s="2">
         <v>2</v>
@@ -22210,16 +22214,16 @@
         <v>21</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>3</v>
+        <v>68</v>
       </c>
       <c r="C143" s="2">
         <v>19</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F143" s="2">
         <v>4</v>
@@ -22362,16 +22366,16 @@
         <v>22</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>3</v>
+        <v>68</v>
       </c>
       <c r="C144" s="2">
         <v>23</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F144" s="2">
         <v>2</v>
@@ -22514,16 +22518,16 @@
         <v>23</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="C145" s="2">
         <v>21</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F145" s="2">
         <v>3</v>
@@ -22666,16 +22670,16 @@
         <v>24</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="C146" s="2">
         <v>19</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F146" s="2">
         <v>2</v>
@@ -22818,16 +22822,16 @@
         <v>25</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="C147" s="2">
         <v>24</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F147" s="2">
         <v>4</v>
@@ -22970,16 +22974,16 @@
         <v>26</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="C148" s="2">
         <v>19</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F148" s="2">
         <v>4</v>
@@ -23122,16 +23126,16 @@
         <v>27</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="C149" s="2">
         <v>20</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F149" s="2">
         <v>3</v>
@@ -23274,16 +23278,16 @@
         <v>28</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="C150" s="2">
         <v>19</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F150" s="2">
         <v>4</v>
@@ -23426,16 +23430,16 @@
         <v>29</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="C151" s="2">
         <v>20</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F151" s="2">
         <v>4</v>
@@ -23578,16 +23582,16 @@
         <v>30</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>3</v>
+        <v>68</v>
       </c>
       <c r="C152" s="2">
         <v>21</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F152" s="2">
         <v>2</v>
@@ -23730,16 +23734,16 @@
         <v>31</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>3</v>
+        <v>68</v>
       </c>
       <c r="C153" s="2">
         <v>18</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F153" s="2">
         <v>3</v>
@@ -23882,16 +23886,16 @@
         <v>32</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="C154" s="2">
         <v>21</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F154" s="2">
         <v>3</v>
@@ -24034,16 +24038,16 @@
         <v>33</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>3</v>
+        <v>68</v>
       </c>
       <c r="C155" s="2">
         <v>22</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F155" s="2">
         <v>2</v>
@@ -24186,16 +24190,16 @@
         <v>34</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="C156" s="2">
         <v>18</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F156" s="2">
         <v>2</v>
@@ -24338,16 +24342,16 @@
         <v>35</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="C157" s="2">
         <v>21</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F157" s="2">
         <v>3</v>
@@ -24490,16 +24494,16 @@
         <v>36</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>3</v>
+        <v>68</v>
       </c>
       <c r="C158" s="2">
         <v>22</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F158" s="2">
         <v>2</v>
@@ -24642,16 +24646,16 @@
         <v>37</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>3</v>
+        <v>68</v>
       </c>
       <c r="C159" s="2">
         <v>23</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F159" s="2">
         <v>2</v>
@@ -24794,16 +24798,16 @@
         <v>38</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="C160" s="2">
         <v>21</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F160" s="2">
         <v>4</v>
@@ -24946,16 +24950,16 @@
         <v>39</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="C161" s="2">
         <v>21</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F161" s="2">
         <v>3</v>
@@ -25098,16 +25102,16 @@
         <v>40</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="C162" s="2">
         <v>20</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F162" s="2">
         <v>4</v>
@@ -25250,16 +25254,16 @@
         <v>41</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="C163" s="2">
         <v>23</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F163" s="2">
         <v>3</v>
@@ -25402,16 +25406,16 @@
         <v>42</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="C164" s="2">
         <v>21</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F164" s="2">
         <v>4</v>
@@ -25554,16 +25558,16 @@
         <v>43</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="C165" s="2">
         <v>23</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F165" s="2">
         <v>3</v>
@@ -25706,16 +25710,16 @@
         <v>44</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="C166" s="2">
         <v>19</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F166" s="2">
         <v>3</v>
@@ -25858,16 +25862,16 @@
         <v>45</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="C167" s="2">
         <v>20</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F167" s="2">
         <v>2</v>
@@ -26010,16 +26014,16 @@
         <v>46</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>3</v>
+        <v>68</v>
       </c>
       <c r="C168" s="2">
         <v>22</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F168" s="2">
         <v>2</v>
@@ -26162,16 +26166,16 @@
         <v>47</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>3</v>
+        <v>68</v>
       </c>
       <c r="C169" s="2">
         <v>21</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F169" s="2">
         <v>3</v>
@@ -26314,16 +26318,16 @@
         <v>48</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="C170" s="2">
         <v>23</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F170" s="2">
         <v>4</v>
@@ -26466,16 +26470,16 @@
         <v>49</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>3</v>
+        <v>68</v>
       </c>
       <c r="C171" s="2">
         <v>23</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F171" s="2">
         <v>2</v>
@@ -26618,16 +26622,16 @@
         <v>50</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="C172" s="2">
         <v>20</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F172" s="2">
         <v>4</v>
@@ -26770,16 +26774,16 @@
         <v>51</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="C173" s="2">
         <v>22</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F173" s="2">
         <v>2</v>
@@ -26922,16 +26926,16 @@
         <v>1</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>3</v>
+        <v>68</v>
       </c>
       <c r="C174" s="2">
         <v>32</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F174" s="2">
         <v>2</v>
@@ -27074,16 +27078,16 @@
         <v>2</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="C175" s="2">
         <v>20</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F175" s="2">
         <v>4</v>
@@ -27226,16 +27230,16 @@
         <v>3</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>3</v>
+        <v>68</v>
       </c>
       <c r="C176" s="2">
         <v>19</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F176" s="2">
         <v>2</v>
@@ -27378,16 +27382,16 @@
         <v>4</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>3</v>
+        <v>68</v>
       </c>
       <c r="C177" s="2">
         <v>18</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F177" s="2">
         <v>3</v>
@@ -27530,16 +27534,16 @@
         <v>5</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>3</v>
+        <v>68</v>
       </c>
       <c r="C178" s="2">
         <v>19</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F178" s="2">
         <v>3</v>
@@ -27682,16 +27686,16 @@
         <v>6</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="C179" s="2">
         <v>22</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F179" s="2">
         <v>4</v>
@@ -27834,16 +27838,16 @@
         <v>7</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="C180" s="2">
         <v>19</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F180" s="2">
         <v>2</v>
@@ -27986,16 +27990,16 @@
         <v>8</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>3</v>
+        <v>68</v>
       </c>
       <c r="C181" s="2">
         <v>21</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F181" s="2">
         <v>2</v>
@@ -28138,16 +28142,16 @@
         <v>9</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>3</v>
+        <v>68</v>
       </c>
       <c r="C182" s="2">
         <v>19</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F182" s="2">
         <v>3</v>
@@ -28290,16 +28294,16 @@
         <v>10</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="C183" s="2">
         <v>19</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F183" s="2">
         <v>2</v>
@@ -28442,16 +28446,16 @@
         <v>11</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="C184" s="2">
         <v>22</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F184" s="2">
         <v>3</v>
@@ -28594,16 +28598,16 @@
         <v>12</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>3</v>
+        <v>68</v>
       </c>
       <c r="C185" s="2">
         <v>18</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F185" s="2">
         <v>3</v>
@@ -28746,16 +28750,16 @@
         <v>13</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>3</v>
+        <v>68</v>
       </c>
       <c r="C186" s="2">
         <v>20</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F186" s="2">
         <v>4</v>
@@ -28898,16 +28902,16 @@
         <v>14</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="C187" s="2">
         <v>20</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F187" s="2">
         <v>2</v>
@@ -29050,16 +29054,16 @@
         <v>15</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="C188" s="2">
         <v>20</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F188" s="2">
         <v>3</v>
@@ -29202,16 +29206,16 @@
         <v>16</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="C189" s="2">
         <v>18</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F189" s="2">
         <v>2</v>
@@ -29354,16 +29358,16 @@
         <v>17</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="C190" s="2">
         <v>18</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F190" s="2">
         <v>2</v>
@@ -29506,16 +29510,16 @@
         <v>18</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>3</v>
+        <v>68</v>
       </c>
       <c r="C191" s="2">
         <v>19</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F191" s="2">
         <v>2</v>
@@ -29658,16 +29662,16 @@
         <v>19</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>3</v>
+        <v>68</v>
       </c>
       <c r="C192" s="2">
         <v>18</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F192" s="2">
         <v>3</v>
@@ -29810,16 +29814,16 @@
         <v>20</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>3</v>
+        <v>68</v>
       </c>
       <c r="C193" s="2">
         <v>23</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F193" s="2">
         <v>4</v>
@@ -29962,16 +29966,16 @@
         <v>21</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>3</v>
+        <v>68</v>
       </c>
       <c r="C194" s="2">
         <v>19</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F194" s="2">
         <v>2</v>
@@ -30114,16 +30118,16 @@
         <v>22</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="C195" s="2">
         <v>18</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F195" s="2">
         <v>2</v>
@@ -30266,16 +30270,16 @@
         <v>23</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>3</v>
+        <v>68</v>
       </c>
       <c r="C196" s="2">
         <v>18</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F196" s="2">
         <v>4</v>
@@ -30418,16 +30422,16 @@
         <v>24</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="C197" s="2">
         <v>18</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F197" s="2">
         <v>3</v>
@@ -30570,16 +30574,16 @@
         <v>25</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="C198" s="2">
         <v>26</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F198" s="2">
         <v>2</v>
@@ -30722,16 +30726,16 @@
         <v>26</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="C199" s="2">
         <v>24</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F199" s="2">
         <v>3</v>
@@ -30874,16 +30878,16 @@
         <v>27</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>3</v>
+        <v>68</v>
       </c>
       <c r="C200" s="2">
         <v>24</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F200" s="2">
         <v>3</v>
@@ -31026,16 +31030,16 @@
         <v>28</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="C201" s="2">
         <v>24</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F201" s="2">
         <v>2</v>
@@ -31178,16 +31182,16 @@
         <v>29</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>3</v>
+        <v>68</v>
       </c>
       <c r="C202" s="2">
         <v>21</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F202" s="2">
         <v>3</v>
@@ -31330,16 +31334,16 @@
         <v>30</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="C203" s="2">
         <v>23</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F203" s="2">
         <v>2</v>
@@ -31482,16 +31486,16 @@
         <v>31</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="C204" s="2">
         <v>24</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F204" s="2">
         <v>2</v>
@@ -31634,16 +31638,16 @@
         <v>32</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>3</v>
+        <v>68</v>
       </c>
       <c r="C205" s="2">
         <v>21</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F205" s="2">
         <v>3</v>
@@ -31786,16 +31790,16 @@
         <v>33</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>3</v>
+        <v>68</v>
       </c>
       <c r="C206" s="2">
         <v>18</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F206" s="2">
         <v>3</v>
@@ -31938,16 +31942,16 @@
         <v>34</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="C207" s="2">
         <v>23</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F207" s="2">
         <v>3</v>
@@ -32090,16 +32094,16 @@
         <v>35</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>3</v>
+        <v>68</v>
       </c>
       <c r="C208" s="2">
         <v>24</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F208" s="2">
         <v>3</v>
@@ -32242,16 +32246,16 @@
         <v>36</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="C209" s="2">
         <v>24</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F209" s="2">
         <v>3</v>
@@ -32394,16 +32398,16 @@
         <v>37</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>3</v>
+        <v>68</v>
       </c>
       <c r="C210" s="2">
         <v>18</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E210" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F210" s="2">
         <v>2</v>
@@ -32546,16 +32550,16 @@
         <v>38</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>3</v>
+        <v>68</v>
       </c>
       <c r="C211" s="2">
         <v>22</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F211" s="2">
         <v>3</v>
@@ -32698,16 +32702,16 @@
         <v>39</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="C212" s="2">
         <v>23</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E212" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F212" s="2">
         <v>2</v>
@@ -32850,16 +32854,16 @@
         <v>40</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="C213" s="2">
         <v>24</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E213" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F213" s="2">
         <v>2</v>
@@ -33002,16 +33006,16 @@
         <v>41</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>3</v>
+        <v>68</v>
       </c>
       <c r="C214" s="2">
         <v>23</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E214" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F214" s="2">
         <v>2</v>
@@ -33154,16 +33158,16 @@
         <v>42</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>3</v>
+        <v>68</v>
       </c>
       <c r="C215" s="2">
         <v>24</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E215" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F215" s="2">
         <v>2</v>
@@ -33306,16 +33310,16 @@
         <v>43</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>3</v>
+        <v>68</v>
       </c>
       <c r="C216" s="2">
         <v>23</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E216" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F216" s="2">
         <v>3</v>
@@ -33458,16 +33462,16 @@
         <v>44</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>3</v>
+        <v>68</v>
       </c>
       <c r="C217" s="2">
         <v>21</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E217" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F217" s="2">
         <v>4</v>
@@ -33610,16 +33614,16 @@
         <v>45</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="C218" s="2">
         <v>18</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E218" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F218" s="2">
         <v>3</v>
@@ -33762,16 +33766,16 @@
         <v>46</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>3</v>
+        <v>68</v>
       </c>
       <c r="C219" s="2">
         <v>18</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E219" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F219" s="2">
         <v>3</v>
@@ -33914,16 +33918,16 @@
         <v>47</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>3</v>
+        <v>68</v>
       </c>
       <c r="C220" s="2">
         <v>20</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E220" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F220" s="2">
         <v>3</v>
@@ -34066,16 +34070,16 @@
         <v>48</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>3</v>
+        <v>68</v>
       </c>
       <c r="C221" s="2">
         <v>24</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E221" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F221" s="2">
         <v>3</v>
@@ -34218,16 +34222,16 @@
         <v>49</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="C222" s="2">
         <v>20</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E222" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F222" s="2">
         <v>3</v>
@@ -34370,16 +34374,16 @@
         <v>50</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>3</v>
+        <v>68</v>
       </c>
       <c r="C223" s="2">
         <v>19</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E223" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F223" s="2">
         <v>2</v>
@@ -34522,16 +34526,16 @@
         <v>51</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="C224" s="2">
         <v>22</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E224" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F224" s="2">
         <v>3</v>
@@ -34674,16 +34678,16 @@
         <v>52</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="C225" s="2">
         <v>23</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E225" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F225" s="2">
         <v>2</v>
@@ -34826,16 +34830,16 @@
         <v>53</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>3</v>
+        <v>68</v>
       </c>
       <c r="C226" s="2">
         <v>24</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E226" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F226" s="2">
         <v>3</v>
@@ -34978,16 +34982,16 @@
         <v>54</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="C227" s="2">
         <v>23</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E227" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F227" s="2">
         <v>2</v>
@@ -35130,16 +35134,16 @@
         <v>55</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="C228" s="2">
         <v>25</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E228" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F228" s="2">
         <v>2</v>
@@ -35282,16 +35286,16 @@
         <v>56</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>3</v>
+        <v>68</v>
       </c>
       <c r="C229" s="2">
         <v>24</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E229" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F229" s="2">
         <v>2</v>
@@ -35434,16 +35438,16 @@
         <v>57</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>3</v>
+        <v>68</v>
       </c>
       <c r="C230" s="2">
         <v>25</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E230" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F230" s="2">
         <v>2</v>
@@ -35586,16 +35590,16 @@
         <v>58</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="C231" s="2">
         <v>22</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E231" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F231" s="2">
         <v>2</v>
@@ -35738,16 +35742,16 @@
         <v>59</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>3</v>
+        <v>68</v>
       </c>
       <c r="C232" s="2">
         <v>21</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E232" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F232" s="2">
         <v>2</v>
@@ -35890,16 +35894,16 @@
         <v>60</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="C233" s="2">
         <v>24</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E233" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F233" s="2">
         <v>2</v>
@@ -36042,16 +36046,16 @@
         <v>61</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>3</v>
+        <v>68</v>
       </c>
       <c r="C234" s="2">
         <v>18</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E234" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F234" s="2">
         <v>3</v>
@@ -36194,16 +36198,16 @@
         <v>62</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>3</v>
+        <v>68</v>
       </c>
       <c r="C235" s="2">
         <v>21</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E235" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F235" s="2">
         <v>3</v>
@@ -36346,16 +36350,16 @@
         <v>63</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>3</v>
+        <v>68</v>
       </c>
       <c r="C236" s="2">
         <v>25</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E236" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F236" s="2">
         <v>3</v>
@@ -36498,16 +36502,16 @@
         <v>64</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="C237" s="2">
         <v>21</v>
       </c>
       <c r="D237" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E237" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F237" s="2">
         <v>2</v>
@@ -36650,16 +36654,16 @@
         <v>65</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>3</v>
+        <v>68</v>
       </c>
       <c r="C238" s="2">
         <v>24</v>
       </c>
       <c r="D238" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E238" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F238" s="2">
         <v>3</v>
@@ -36802,16 +36806,16 @@
         <v>66</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>3</v>
+        <v>68</v>
       </c>
       <c r="C239" s="2">
         <v>24</v>
       </c>
       <c r="D239" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E239" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F239" s="2">
         <v>4</v>
@@ -36954,16 +36958,16 @@
         <v>67</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="C240" s="2">
         <v>25</v>
       </c>
       <c r="D240" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E240" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F240" s="2">
         <v>2</v>
@@ -37106,16 +37110,16 @@
         <v>68</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="C241" s="2">
         <v>26</v>
       </c>
       <c r="D241" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E241" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F241" s="2">
         <v>3</v>
@@ -37258,16 +37262,16 @@
         <v>69</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>3</v>
+        <v>68</v>
       </c>
       <c r="C242" s="2">
         <v>27</v>
       </c>
       <c r="D242" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E242" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F242" s="2">
         <v>3</v>
@@ -37410,16 +37414,16 @@
         <v>70</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>3</v>
+        <v>68</v>
       </c>
       <c r="C243" s="2">
         <v>21</v>
       </c>
       <c r="D243" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E243" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F243" s="2">
         <v>2</v>
@@ -37562,16 +37566,16 @@
         <v>71</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="C244" s="2">
         <v>24</v>
       </c>
       <c r="D244" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E244" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F244" s="2">
         <v>2</v>
@@ -37714,16 +37718,16 @@
         <v>72</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="C245" s="2">
         <v>25</v>
       </c>
       <c r="D245" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E245" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F245" s="2">
         <v>4</v>
@@ -37866,16 +37870,16 @@
         <v>73</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>3</v>
+        <v>68</v>
       </c>
       <c r="C246" s="2">
         <v>26</v>
       </c>
       <c r="D246" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E246" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F246" s="2">
         <v>3</v>
@@ -38018,16 +38022,16 @@
         <v>74</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="C247" s="2">
         <v>18</v>
       </c>
       <c r="D247" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E247" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F247" s="2">
         <v>3</v>
@@ -38170,16 +38174,16 @@
         <v>75</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="C248" s="2">
         <v>20</v>
       </c>
       <c r="D248" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E248" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F248" s="2">
         <v>2</v>
@@ -38322,16 +38326,16 @@
         <v>76</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>3</v>
+        <v>68</v>
       </c>
       <c r="C249" s="2">
         <v>22</v>
       </c>
       <c r="D249" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E249" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F249" s="2">
         <v>4</v>
@@ -38474,16 +38478,16 @@
         <v>77</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>3</v>
+        <v>68</v>
       </c>
       <c r="C250" s="2">
         <v>28</v>
       </c>
       <c r="D250" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E250" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F250" s="2">
         <v>2</v>
@@ -38626,16 +38630,16 @@
         <v>78</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="C251" s="2">
         <v>27</v>
       </c>
       <c r="D251" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E251" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F251" s="2">
         <v>2</v>
@@ -38778,16 +38782,16 @@
         <v>79</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="C252" s="2">
         <v>27</v>
       </c>
       <c r="D252" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E252" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F252" s="2">
         <v>2</v>
@@ -38930,16 +38934,16 @@
         <v>80</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="C253" s="2">
         <v>25</v>
       </c>
       <c r="D253" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E253" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F253" s="2">
         <v>4</v>
@@ -39082,16 +39086,16 @@
         <v>81</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="C254" s="2">
         <v>20</v>
       </c>
       <c r="D254" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E254" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F254" s="2">
         <v>2</v>
@@ -39234,16 +39238,16 @@
         <v>82</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="C255" s="2">
         <v>26</v>
       </c>
       <c r="D255" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E255" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F255" s="2">
         <v>4</v>
@@ -39386,16 +39390,16 @@
         <v>83</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="C256" s="2">
         <v>24</v>
       </c>
       <c r="D256" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E256" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F256" s="2">
         <v>3</v>
@@ -39538,16 +39542,16 @@
         <v>84</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="C257" s="2">
         <v>18</v>
       </c>
       <c r="D257" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E257" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F257" s="2">
         <v>4</v>
@@ -39690,16 +39694,16 @@
         <v>85</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="C258" s="2">
         <v>20</v>
       </c>
       <c r="D258" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E258" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F258" s="2">
         <v>2</v>
@@ -39842,16 +39846,16 @@
         <v>86</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="C259" s="2">
         <v>26</v>
       </c>
       <c r="D259" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E259" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F259" s="2">
         <v>2</v>
@@ -39994,16 +39998,16 @@
         <v>87</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="C260" s="2">
         <v>25</v>
       </c>
       <c r="D260" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E260" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F260" s="2">
         <v>2</v>
@@ -40146,16 +40150,16 @@
         <v>88</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>3</v>
+        <v>68</v>
       </c>
       <c r="C261" s="2">
         <v>22</v>
       </c>
       <c r="D261" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E261" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F261" s="2">
         <v>3</v>
@@ -40298,16 +40302,16 @@
         <v>89</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="C262" s="2">
         <v>26</v>
       </c>
       <c r="D262" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E262" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F262" s="2">
         <v>3</v>
@@ -40450,16 +40454,16 @@
         <v>90</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>3</v>
+        <v>68</v>
       </c>
       <c r="C263" s="2">
         <v>18</v>
       </c>
       <c r="D263" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E263" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F263" s="2">
         <v>4</v>
@@ -40602,16 +40606,16 @@
         <v>91</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>3</v>
+        <v>68</v>
       </c>
       <c r="C264" s="2">
         <v>23</v>
       </c>
       <c r="D264" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E264" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F264" s="2">
         <v>3</v>
@@ -40754,16 +40758,16 @@
         <v>92</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="C265" s="2">
         <v>26</v>
       </c>
       <c r="D265" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E265" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F265" s="2">
         <v>4</v>
@@ -40906,16 +40910,16 @@
         <v>93</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>3</v>
+        <v>68</v>
       </c>
       <c r="C266" s="2">
         <v>19</v>
       </c>
       <c r="D266" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E266" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F266" s="2">
         <v>3</v>
@@ -41058,16 +41062,16 @@
         <v>1</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="C267" s="2">
         <v>22</v>
       </c>
       <c r="D267" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E267" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F267" s="2">
         <v>2</v>
@@ -41210,16 +41214,16 @@
         <v>2</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>3</v>
+        <v>68</v>
       </c>
       <c r="C268" s="2">
         <v>22</v>
       </c>
       <c r="D268" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E268" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F268" s="2">
         <v>2</v>
@@ -41362,16 +41366,16 @@
         <v>3</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>3</v>
+        <v>68</v>
       </c>
       <c r="C269" s="2">
         <v>22</v>
       </c>
       <c r="D269" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E269" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F269" s="2">
         <v>2</v>
@@ -41514,16 +41518,16 @@
         <v>4</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>3</v>
+        <v>68</v>
       </c>
       <c r="C270" s="2">
         <v>18</v>
       </c>
       <c r="D270" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E270" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F270" s="2">
         <v>4</v>
@@ -41666,16 +41670,16 @@
         <v>5</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="C271" s="2">
         <v>21</v>
       </c>
       <c r="D271" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E271" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F271" s="2">
         <v>2</v>
@@ -41818,16 +41822,16 @@
         <v>6</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>3</v>
+        <v>68</v>
       </c>
       <c r="C272" s="2">
         <v>22</v>
       </c>
       <c r="D272" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E272" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F272" s="2">
         <v>4</v>
@@ -41970,16 +41974,16 @@
         <v>7</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="C273" s="2">
         <v>21</v>
       </c>
       <c r="D273" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E273" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F273" s="2">
         <v>4</v>
@@ -42122,16 +42126,16 @@
         <v>8</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="C274" s="2">
         <v>21</v>
       </c>
       <c r="D274" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E274" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F274" s="2">
         <v>3</v>
@@ -42274,16 +42278,16 @@
         <v>9</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>3</v>
+        <v>68</v>
       </c>
       <c r="C275" s="2">
         <v>21</v>
       </c>
       <c r="D275" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E275" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F275" s="2">
         <v>3</v>
@@ -42426,16 +42430,16 @@
         <v>10</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>3</v>
+        <v>68</v>
       </c>
       <c r="C276" s="2">
         <v>20</v>
       </c>
       <c r="D276" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E276" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F276" s="2">
         <v>3</v>
@@ -42578,16 +42582,16 @@
         <v>11</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>3</v>
+        <v>68</v>
       </c>
       <c r="C277" s="2">
         <v>19</v>
       </c>
       <c r="D277" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E277" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F277" s="2">
         <v>3</v>
@@ -42730,16 +42734,16 @@
         <v>12</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="C278" s="2">
         <v>20</v>
       </c>
       <c r="D278" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E278" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F278" s="2">
         <v>3</v>
@@ -42882,16 +42886,16 @@
         <v>13</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="C279" s="2">
         <v>20</v>
       </c>
       <c r="D279" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E279" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F279" s="2">
         <v>1</v>
@@ -43034,16 +43038,16 @@
         <v>14</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>3</v>
+        <v>68</v>
       </c>
       <c r="C280" s="2">
         <v>20</v>
       </c>
       <c r="D280" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E280" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F280" s="2">
         <v>2</v>
@@ -43186,16 +43190,16 @@
         <v>15</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>3</v>
+        <v>68</v>
       </c>
       <c r="C281" s="2">
         <v>20</v>
       </c>
       <c r="D281" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E281" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F281" s="2">
         <v>4</v>
@@ -43338,16 +43342,16 @@
         <v>16</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="C282" s="2">
         <v>22</v>
       </c>
       <c r="D282" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E282" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F282" s="2">
         <v>3</v>
@@ -43490,16 +43494,16 @@
         <v>17</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>3</v>
+        <v>68</v>
       </c>
       <c r="C283" s="2">
         <v>18</v>
       </c>
       <c r="D283" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E283" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F283" s="2">
         <v>3</v>
@@ -43642,16 +43646,16 @@
         <v>18</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>3</v>
+        <v>68</v>
       </c>
       <c r="C284" s="2">
         <v>20</v>
       </c>
       <c r="D284" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E284" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F284" s="2">
         <v>2</v>
@@ -43794,16 +43798,16 @@
         <v>19</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>3</v>
+        <v>68</v>
       </c>
       <c r="C285" s="2">
         <v>19</v>
       </c>
       <c r="D285" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E285" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F285" s="2">
         <v>3</v>
@@ -43946,16 +43950,16 @@
         <v>20</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>3</v>
+        <v>68</v>
       </c>
       <c r="C286" s="2">
         <v>20</v>
       </c>
       <c r="D286" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E286" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F286" s="2">
         <v>2</v>
@@ -44098,16 +44102,16 @@
         <v>21</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>3</v>
+        <v>68</v>
       </c>
       <c r="C287" s="2">
         <v>20</v>
       </c>
       <c r="D287" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E287" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F287" s="2">
         <v>3</v>
@@ -44250,16 +44254,16 @@
         <v>22</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>3</v>
+        <v>68</v>
       </c>
       <c r="C288" s="2">
         <v>18</v>
       </c>
       <c r="D288" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E288" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F288" s="2">
         <v>4</v>
@@ -44402,16 +44406,16 @@
         <v>23</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>3</v>
+        <v>68</v>
       </c>
       <c r="C289" s="2">
         <v>20</v>
       </c>
       <c r="D289" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E289" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F289" s="2">
         <v>2</v>
@@ -44554,16 +44558,16 @@
         <v>24</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>3</v>
+        <v>68</v>
       </c>
       <c r="C290" s="2">
         <v>23</v>
       </c>
       <c r="D290" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E290" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F290" s="2">
         <v>2</v>
@@ -44706,16 +44710,16 @@
         <v>25</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="C291" s="2">
         <v>24</v>
       </c>
       <c r="D291" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E291" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F291" s="2">
         <v>4</v>
@@ -44858,16 +44862,16 @@
         <v>26</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="C292" s="2">
         <v>21</v>
       </c>
       <c r="D292" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E292" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F292" s="2">
         <v>4</v>
@@ -45010,16 +45014,16 @@
         <v>27</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>3</v>
+        <v>68</v>
       </c>
       <c r="C293" s="2">
         <v>22</v>
       </c>
       <c r="D293" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E293" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F293" s="2">
         <v>2</v>
@@ -45162,16 +45166,16 @@
         <v>28</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>3</v>
+        <v>68</v>
       </c>
       <c r="C294" s="2">
         <v>25</v>
       </c>
       <c r="D294" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E294" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F294" s="2">
         <v>2</v>
@@ -45314,16 +45318,16 @@
         <v>29</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="C295" s="2">
         <v>24</v>
       </c>
       <c r="D295" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E295" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F295" s="2">
         <v>3</v>
@@ -45466,16 +45470,16 @@
         <v>30</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="C296" s="2">
         <v>23</v>
       </c>
       <c r="D296" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E296" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F296" s="2">
         <v>2</v>
@@ -45618,16 +45622,16 @@
         <v>31</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="C297" s="2">
         <v>24</v>
       </c>
       <c r="D297" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E297" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F297" s="2">
         <v>2</v>
@@ -45770,16 +45774,16 @@
         <v>32</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="C298" s="2">
         <v>24</v>
       </c>
       <c r="D298" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E298" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F298" s="2">
         <v>3</v>
@@ -45922,16 +45926,16 @@
         <v>33</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="C299" s="2">
         <v>23</v>
       </c>
       <c r="D299" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E299" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F299" s="2">
         <v>2</v>
@@ -46074,16 +46078,16 @@
         <v>34</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="C300" s="2">
         <v>19</v>
       </c>
       <c r="D300" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E300" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F300" s="2">
         <v>3</v>
@@ -46226,16 +46230,16 @@
         <v>35</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="C301" s="2">
         <v>23</v>
       </c>
       <c r="D301" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E301" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F301" s="2">
         <v>3</v>
@@ -46378,16 +46382,16 @@
         <v>36</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="C302" s="2">
         <v>25</v>
       </c>
       <c r="D302" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E302" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F302" s="2">
         <v>2</v>
@@ -46526,6 +46530,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:AX302" xr:uid="{D41AE0BE-DEBA-4802-9648-CDCB105183E6}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/BDTesis-DLA.xlsx
+++ b/BDTesis-DLA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\OLID JP\GitHub Repositorio\Practicando-R\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77FC322E-0E67-474A-9681-C5BEBC8DDB97}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{685D3C37-A270-4322-9C55-760A955A96A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E572D2CA-CBE9-48EC-9257-4C40B3DF4F72}"/>
   </bookViews>
@@ -97,9 +97,6 @@
   </si>
   <si>
     <t>Ciclo</t>
-  </si>
-  <si>
-    <t>Escuala Profesional</t>
   </si>
   <si>
     <t>ITEM01</t>
@@ -241,6 +238,9 @@
   </si>
   <si>
     <t>Femenino</t>
+  </si>
+  <si>
+    <t>Escuela Profesional</t>
   </si>
 </sst>
 </file>
@@ -618,7 +618,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E9DA61E-90FB-4AB3-983D-FE90D47EE1BB}">
   <dimension ref="A1:AX302"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -639,142 +641,142 @@
         <v>20</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AS1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AT1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AU1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AV1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="AW1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="AX1" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="AX1" s="1" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:50" x14ac:dyDescent="0.25">
@@ -782,7 +784,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C2" s="2">
         <v>20</v>
@@ -934,7 +936,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C3" s="2">
         <v>20</v>
@@ -1086,7 +1088,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C4" s="2">
         <v>18</v>
@@ -1238,7 +1240,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C5" s="2">
         <v>17</v>
@@ -1390,7 +1392,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C6" s="2">
         <v>18</v>
@@ -1542,7 +1544,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C7" s="2">
         <v>19</v>
@@ -1694,7 +1696,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C8" s="2">
         <v>18</v>
@@ -1846,7 +1848,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C9" s="2">
         <v>19</v>
@@ -1998,7 +2000,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C10" s="2">
         <v>17</v>
@@ -2150,7 +2152,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C11" s="2">
         <v>19</v>
@@ -2302,7 +2304,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C12" s="2">
         <v>18</v>
@@ -2454,7 +2456,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C13" s="2">
         <v>17</v>
@@ -2606,7 +2608,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C14" s="2">
         <v>19</v>
@@ -2758,7 +2760,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C15" s="2">
         <v>18</v>
@@ -2910,7 +2912,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C16" s="2">
         <v>18</v>
@@ -3062,7 +3064,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C17" s="2">
         <v>20</v>
@@ -3214,7 +3216,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C18" s="2">
         <v>19</v>
@@ -3366,7 +3368,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C19" s="2">
         <v>21</v>
@@ -3518,7 +3520,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C20" s="2">
         <v>20</v>
@@ -3670,7 +3672,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C21" s="2">
         <v>20</v>
@@ -3822,7 +3824,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C22" s="2">
         <v>26</v>
@@ -3974,7 +3976,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C23" s="2">
         <v>25</v>
@@ -4126,7 +4128,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C24" s="2">
         <v>22</v>
@@ -4278,7 +4280,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C25" s="2">
         <v>26</v>
@@ -4430,7 +4432,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C26" s="2">
         <v>18</v>
@@ -4582,7 +4584,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C27" s="2">
         <v>23</v>
@@ -4734,7 +4736,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C28" s="2">
         <v>26</v>
@@ -4886,7 +4888,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C29" s="2">
         <v>19</v>
@@ -5038,7 +5040,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C30" s="2">
         <v>18</v>
@@ -5190,7 +5192,7 @@
         <v>1</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C31" s="2">
         <v>27</v>
@@ -5342,7 +5344,7 @@
         <v>2</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C32" s="2">
         <v>20</v>
@@ -5494,7 +5496,7 @@
         <v>3</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C33" s="2">
         <v>22</v>
@@ -5646,7 +5648,7 @@
         <v>4</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C34" s="2">
         <v>18</v>
@@ -5798,7 +5800,7 @@
         <v>5</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C35" s="2">
         <v>19</v>
@@ -5950,7 +5952,7 @@
         <v>6</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C36" s="2">
         <v>24</v>
@@ -6102,7 +6104,7 @@
         <v>7</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C37" s="2">
         <v>19</v>
@@ -6254,7 +6256,7 @@
         <v>8</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C38" s="2">
         <v>19</v>
@@ -6406,7 +6408,7 @@
         <v>9</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C39" s="2">
         <v>18</v>
@@ -6558,7 +6560,7 @@
         <v>10</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C40" s="2">
         <v>19</v>
@@ -6710,7 +6712,7 @@
         <v>11</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C41" s="2">
         <v>18</v>
@@ -6862,7 +6864,7 @@
         <v>12</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C42" s="2">
         <v>18</v>
@@ -7014,7 +7016,7 @@
         <v>13</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C43" s="2">
         <v>21</v>
@@ -7166,7 +7168,7 @@
         <v>14</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C44" s="2">
         <v>22</v>
@@ -7318,7 +7320,7 @@
         <v>15</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C45" s="2">
         <v>25</v>
@@ -7470,7 +7472,7 @@
         <v>16</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C46" s="2">
         <v>27</v>
@@ -7622,7 +7624,7 @@
         <v>17</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C47" s="2">
         <v>26</v>
@@ -7774,7 +7776,7 @@
         <v>18</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C48" s="2">
         <v>23</v>
@@ -7926,7 +7928,7 @@
         <v>19</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C49" s="2">
         <v>24</v>
@@ -8078,7 +8080,7 @@
         <v>20</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C50" s="2">
         <v>22</v>
@@ -8230,7 +8232,7 @@
         <v>21</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C51" s="2">
         <v>24</v>
@@ -8382,7 +8384,7 @@
         <v>22</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C52" s="2">
         <v>25</v>
@@ -8534,7 +8536,7 @@
         <v>23</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C53" s="2">
         <v>26</v>
@@ -8686,7 +8688,7 @@
         <v>24</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C54" s="2">
         <v>24</v>
@@ -8838,7 +8840,7 @@
         <v>25</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C55" s="2">
         <v>24</v>
@@ -8990,7 +8992,7 @@
         <v>26</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C56" s="2">
         <v>22</v>
@@ -9142,7 +9144,7 @@
         <v>27</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C57" s="2">
         <v>20</v>
@@ -9294,7 +9296,7 @@
         <v>28</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C58" s="2">
         <v>22</v>
@@ -9446,7 +9448,7 @@
         <v>29</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C59" s="2">
         <v>26</v>
@@ -9598,7 +9600,7 @@
         <v>30</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C60" s="2">
         <v>25</v>
@@ -9750,7 +9752,7 @@
         <v>31</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C61" s="2">
         <v>23</v>
@@ -9902,7 +9904,7 @@
         <v>32</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C62" s="2">
         <v>24</v>
@@ -10054,7 +10056,7 @@
         <v>33</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C63" s="2">
         <v>24</v>
@@ -10206,7 +10208,7 @@
         <v>34</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C64" s="2">
         <v>25</v>
@@ -10358,7 +10360,7 @@
         <v>35</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C65" s="2">
         <v>27</v>
@@ -10510,7 +10512,7 @@
         <v>36</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C66" s="2">
         <v>22</v>
@@ -10662,7 +10664,7 @@
         <v>37</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C67" s="2">
         <v>24</v>
@@ -10814,7 +10816,7 @@
         <v>38</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C68" s="2">
         <v>24</v>
@@ -10966,7 +10968,7 @@
         <v>1</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C69" s="2">
         <v>30</v>
@@ -11118,7 +11120,7 @@
         <v>2</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C70" s="2">
         <v>23</v>
@@ -11270,7 +11272,7 @@
         <v>3</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C71" s="2">
         <v>28</v>
@@ -11422,7 +11424,7 @@
         <v>4</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C72" s="2">
         <v>30</v>
@@ -11574,7 +11576,7 @@
         <v>5</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C73" s="2">
         <v>27</v>
@@ -11726,7 +11728,7 @@
         <v>6</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C74" s="2">
         <v>24</v>
@@ -11878,7 +11880,7 @@
         <v>7</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C75" s="2">
         <v>26</v>
@@ -12030,7 +12032,7 @@
         <v>8</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C76" s="2">
         <v>27</v>
@@ -12182,7 +12184,7 @@
         <v>1</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C77" s="2">
         <v>22</v>
@@ -12334,7 +12336,7 @@
         <v>2</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C78" s="2">
         <v>22</v>
@@ -12486,7 +12488,7 @@
         <v>3</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C79" s="2">
         <v>20</v>
@@ -12638,7 +12640,7 @@
         <v>4</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C80" s="2">
         <v>20</v>
@@ -12790,7 +12792,7 @@
         <v>5</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C81" s="2">
         <v>27</v>
@@ -12942,7 +12944,7 @@
         <v>6</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C82" s="2">
         <v>18</v>
@@ -13094,7 +13096,7 @@
         <v>7</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C83" s="2">
         <v>21</v>
@@ -13246,7 +13248,7 @@
         <v>8</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C84" s="2">
         <v>21</v>
@@ -13398,7 +13400,7 @@
         <v>9</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C85" s="2">
         <v>19</v>
@@ -13550,7 +13552,7 @@
         <v>10</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C86" s="2">
         <v>20</v>
@@ -13702,7 +13704,7 @@
         <v>11</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C87" s="2">
         <v>19</v>
@@ -13854,7 +13856,7 @@
         <v>12</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C88" s="2">
         <v>18</v>
@@ -14006,7 +14008,7 @@
         <v>13</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C89" s="2">
         <v>19</v>
@@ -14158,7 +14160,7 @@
         <v>14</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C90" s="2">
         <v>19</v>
@@ -14310,7 +14312,7 @@
         <v>15</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C91" s="2">
         <v>24</v>
@@ -14462,7 +14464,7 @@
         <v>16</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C92" s="2">
         <v>21</v>
@@ -14614,7 +14616,7 @@
         <v>17</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C93" s="2">
         <v>20</v>
@@ -14766,7 +14768,7 @@
         <v>18</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C94" s="2">
         <v>18</v>
@@ -14918,7 +14920,7 @@
         <v>19</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C95" s="2">
         <v>20</v>
@@ -15070,7 +15072,7 @@
         <v>20</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C96" s="2">
         <v>19</v>
@@ -15222,7 +15224,7 @@
         <v>21</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C97" s="2">
         <v>20</v>
@@ -15374,7 +15376,7 @@
         <v>22</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C98" s="2">
         <v>19</v>
@@ -15526,7 +15528,7 @@
         <v>23</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C99" s="2">
         <v>20</v>
@@ -15678,7 +15680,7 @@
         <v>24</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C100" s="2">
         <v>19</v>
@@ -15830,7 +15832,7 @@
         <v>25</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C101" s="2">
         <v>20</v>
@@ -15982,7 +15984,7 @@
         <v>26</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C102" s="2">
         <v>25</v>
@@ -16134,7 +16136,7 @@
         <v>27</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C103" s="2">
         <v>19</v>
@@ -16286,7 +16288,7 @@
         <v>28</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C104" s="2">
         <v>20</v>
@@ -16438,7 +16440,7 @@
         <v>29</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C105" s="2">
         <v>18</v>
@@ -16590,7 +16592,7 @@
         <v>30</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C106" s="2">
         <v>20</v>
@@ -16742,7 +16744,7 @@
         <v>31</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C107" s="2">
         <v>26</v>
@@ -16894,7 +16896,7 @@
         <v>32</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C108" s="2">
         <v>25</v>
@@ -17046,7 +17048,7 @@
         <v>33</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C109" s="2">
         <v>19</v>
@@ -17198,7 +17200,7 @@
         <v>34</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C110" s="2">
         <v>20</v>
@@ -17350,7 +17352,7 @@
         <v>35</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C111" s="2">
         <v>20</v>
@@ -17502,7 +17504,7 @@
         <v>36</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C112" s="2">
         <v>21</v>
@@ -17654,7 +17656,7 @@
         <v>37</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C113" s="2">
         <v>19</v>
@@ -17806,7 +17808,7 @@
         <v>38</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C114" s="2">
         <v>18</v>
@@ -17958,7 +17960,7 @@
         <v>39</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C115" s="2">
         <v>22</v>
@@ -18110,7 +18112,7 @@
         <v>40</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C116" s="2">
         <v>19</v>
@@ -18262,7 +18264,7 @@
         <v>41</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C117" s="2">
         <v>23</v>
@@ -18414,7 +18416,7 @@
         <v>42</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C118" s="2">
         <v>20</v>
@@ -18566,7 +18568,7 @@
         <v>43</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C119" s="2">
         <v>18</v>
@@ -18718,7 +18720,7 @@
         <v>44</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C120" s="2">
         <v>20</v>
@@ -18870,7 +18872,7 @@
         <v>45</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C121" s="2">
         <v>21</v>
@@ -19022,7 +19024,7 @@
         <v>46</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C122" s="2">
         <v>24</v>
@@ -19174,7 +19176,7 @@
         <v>1</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C123" s="2">
         <v>23</v>
@@ -19326,7 +19328,7 @@
         <v>2</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C124" s="2">
         <v>25</v>
@@ -19478,7 +19480,7 @@
         <v>3</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C125" s="2">
         <v>25</v>
@@ -19630,7 +19632,7 @@
         <v>4</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C126" s="2">
         <v>21</v>
@@ -19782,7 +19784,7 @@
         <v>5</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C127" s="2">
         <v>21</v>
@@ -19934,7 +19936,7 @@
         <v>6</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C128" s="2">
         <v>21</v>
@@ -20086,7 +20088,7 @@
         <v>7</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C129" s="2">
         <v>23</v>
@@ -20238,7 +20240,7 @@
         <v>8</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C130" s="2">
         <v>21</v>
@@ -20390,7 +20392,7 @@
         <v>9</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C131" s="2">
         <v>20</v>
@@ -20542,7 +20544,7 @@
         <v>10</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C132" s="2">
         <v>22</v>
@@ -20694,7 +20696,7 @@
         <v>11</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C133" s="2">
         <v>21</v>
@@ -20846,7 +20848,7 @@
         <v>12</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C134" s="2">
         <v>19</v>
@@ -20998,7 +21000,7 @@
         <v>13</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C135" s="2">
         <v>21</v>
@@ -21150,7 +21152,7 @@
         <v>14</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C136" s="2">
         <v>19</v>
@@ -21302,7 +21304,7 @@
         <v>15</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C137" s="2">
         <v>21</v>
@@ -21454,7 +21456,7 @@
         <v>16</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C138" s="2">
         <v>20</v>
@@ -21606,7 +21608,7 @@
         <v>17</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C139" s="2">
         <v>20</v>
@@ -21758,7 +21760,7 @@
         <v>18</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C140" s="2">
         <v>21</v>
@@ -21910,7 +21912,7 @@
         <v>19</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C141" s="2">
         <v>19</v>
@@ -22062,7 +22064,7 @@
         <v>20</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C142" s="2">
         <v>20</v>
@@ -22214,7 +22216,7 @@
         <v>21</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C143" s="2">
         <v>19</v>
@@ -22366,7 +22368,7 @@
         <v>22</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C144" s="2">
         <v>23</v>
@@ -22518,7 +22520,7 @@
         <v>23</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C145" s="2">
         <v>21</v>
@@ -22670,7 +22672,7 @@
         <v>24</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C146" s="2">
         <v>19</v>
@@ -22822,7 +22824,7 @@
         <v>25</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C147" s="2">
         <v>24</v>
@@ -22974,7 +22976,7 @@
         <v>26</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C148" s="2">
         <v>19</v>
@@ -23126,7 +23128,7 @@
         <v>27</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C149" s="2">
         <v>20</v>
@@ -23278,7 +23280,7 @@
         <v>28</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C150" s="2">
         <v>19</v>
@@ -23430,7 +23432,7 @@
         <v>29</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C151" s="2">
         <v>20</v>
@@ -23582,7 +23584,7 @@
         <v>30</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C152" s="2">
         <v>21</v>
@@ -23734,7 +23736,7 @@
         <v>31</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C153" s="2">
         <v>18</v>
@@ -23886,7 +23888,7 @@
         <v>32</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C154" s="2">
         <v>21</v>
@@ -24038,7 +24040,7 @@
         <v>33</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C155" s="2">
         <v>22</v>
@@ -24190,7 +24192,7 @@
         <v>34</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C156" s="2">
         <v>18</v>
@@ -24342,7 +24344,7 @@
         <v>35</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C157" s="2">
         <v>21</v>
@@ -24494,7 +24496,7 @@
         <v>36</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C158" s="2">
         <v>22</v>
@@ -24646,7 +24648,7 @@
         <v>37</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C159" s="2">
         <v>23</v>
@@ -24798,7 +24800,7 @@
         <v>38</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C160" s="2">
         <v>21</v>
@@ -24950,7 +24952,7 @@
         <v>39</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C161" s="2">
         <v>21</v>
@@ -25102,7 +25104,7 @@
         <v>40</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C162" s="2">
         <v>20</v>
@@ -25254,7 +25256,7 @@
         <v>41</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C163" s="2">
         <v>23</v>
@@ -25406,7 +25408,7 @@
         <v>42</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C164" s="2">
         <v>21</v>
@@ -25558,7 +25560,7 @@
         <v>43</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C165" s="2">
         <v>23</v>
@@ -25710,7 +25712,7 @@
         <v>44</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C166" s="2">
         <v>19</v>
@@ -25862,7 +25864,7 @@
         <v>45</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C167" s="2">
         <v>20</v>
@@ -26014,7 +26016,7 @@
         <v>46</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C168" s="2">
         <v>22</v>
@@ -26166,7 +26168,7 @@
         <v>47</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C169" s="2">
         <v>21</v>
@@ -26318,7 +26320,7 @@
         <v>48</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C170" s="2">
         <v>23</v>
@@ -26470,7 +26472,7 @@
         <v>49</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C171" s="2">
         <v>23</v>
@@ -26622,7 +26624,7 @@
         <v>50</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C172" s="2">
         <v>20</v>
@@ -26774,7 +26776,7 @@
         <v>51</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C173" s="2">
         <v>22</v>
@@ -26926,7 +26928,7 @@
         <v>1</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C174" s="2">
         <v>32</v>
@@ -27078,7 +27080,7 @@
         <v>2</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C175" s="2">
         <v>20</v>
@@ -27230,7 +27232,7 @@
         <v>3</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C176" s="2">
         <v>19</v>
@@ -27382,7 +27384,7 @@
         <v>4</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C177" s="2">
         <v>18</v>
@@ -27534,7 +27536,7 @@
         <v>5</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C178" s="2">
         <v>19</v>
@@ -27686,7 +27688,7 @@
         <v>6</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C179" s="2">
         <v>22</v>
@@ -27838,7 +27840,7 @@
         <v>7</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C180" s="2">
         <v>19</v>
@@ -27990,7 +27992,7 @@
         <v>8</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C181" s="2">
         <v>21</v>
@@ -28142,7 +28144,7 @@
         <v>9</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C182" s="2">
         <v>19</v>
@@ -28294,7 +28296,7 @@
         <v>10</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C183" s="2">
         <v>19</v>
@@ -28446,7 +28448,7 @@
         <v>11</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C184" s="2">
         <v>22</v>
@@ -28598,7 +28600,7 @@
         <v>12</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C185" s="2">
         <v>18</v>
@@ -28750,7 +28752,7 @@
         <v>13</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C186" s="2">
         <v>20</v>
@@ -28902,7 +28904,7 @@
         <v>14</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C187" s="2">
         <v>20</v>
@@ -29054,7 +29056,7 @@
         <v>15</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C188" s="2">
         <v>20</v>
@@ -29206,7 +29208,7 @@
         <v>16</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C189" s="2">
         <v>18</v>
@@ -29358,7 +29360,7 @@
         <v>17</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C190" s="2">
         <v>18</v>
@@ -29510,7 +29512,7 @@
         <v>18</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C191" s="2">
         <v>19</v>
@@ -29662,7 +29664,7 @@
         <v>19</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C192" s="2">
         <v>18</v>
@@ -29814,7 +29816,7 @@
         <v>20</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C193" s="2">
         <v>23</v>
@@ -29966,7 +29968,7 @@
         <v>21</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C194" s="2">
         <v>19</v>
@@ -30118,7 +30120,7 @@
         <v>22</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C195" s="2">
         <v>18</v>
@@ -30270,7 +30272,7 @@
         <v>23</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C196" s="2">
         <v>18</v>
@@ -30422,7 +30424,7 @@
         <v>24</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C197" s="2">
         <v>18</v>
@@ -30574,7 +30576,7 @@
         <v>25</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C198" s="2">
         <v>26</v>
@@ -30726,7 +30728,7 @@
         <v>26</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C199" s="2">
         <v>24</v>
@@ -30878,7 +30880,7 @@
         <v>27</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C200" s="2">
         <v>24</v>
@@ -31030,7 +31032,7 @@
         <v>28</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C201" s="2">
         <v>24</v>
@@ -31182,7 +31184,7 @@
         <v>29</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C202" s="2">
         <v>21</v>
@@ -31334,7 +31336,7 @@
         <v>30</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C203" s="2">
         <v>23</v>
@@ -31486,7 +31488,7 @@
         <v>31</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C204" s="2">
         <v>24</v>
@@ -31638,7 +31640,7 @@
         <v>32</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C205" s="2">
         <v>21</v>
@@ -31790,7 +31792,7 @@
         <v>33</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C206" s="2">
         <v>18</v>
@@ -31942,7 +31944,7 @@
         <v>34</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C207" s="2">
         <v>23</v>
@@ -32094,7 +32096,7 @@
         <v>35</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C208" s="2">
         <v>24</v>
@@ -32246,7 +32248,7 @@
         <v>36</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C209" s="2">
         <v>24</v>
@@ -32398,7 +32400,7 @@
         <v>37</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C210" s="2">
         <v>18</v>
@@ -32550,7 +32552,7 @@
         <v>38</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C211" s="2">
         <v>22</v>
@@ -32702,7 +32704,7 @@
         <v>39</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C212" s="2">
         <v>23</v>
@@ -32854,7 +32856,7 @@
         <v>40</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C213" s="2">
         <v>24</v>
@@ -33006,7 +33008,7 @@
         <v>41</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C214" s="2">
         <v>23</v>
@@ -33158,7 +33160,7 @@
         <v>42</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C215" s="2">
         <v>24</v>
@@ -33310,7 +33312,7 @@
         <v>43</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C216" s="2">
         <v>23</v>
@@ -33462,7 +33464,7 @@
         <v>44</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C217" s="2">
         <v>21</v>
@@ -33614,7 +33616,7 @@
         <v>45</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C218" s="2">
         <v>18</v>
@@ -33766,7 +33768,7 @@
         <v>46</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C219" s="2">
         <v>18</v>
@@ -33918,7 +33920,7 @@
         <v>47</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C220" s="2">
         <v>20</v>
@@ -34070,7 +34072,7 @@
         <v>48</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C221" s="2">
         <v>24</v>
@@ -34222,7 +34224,7 @@
         <v>49</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C222" s="2">
         <v>20</v>
@@ -34374,7 +34376,7 @@
         <v>50</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C223" s="2">
         <v>19</v>
@@ -34526,7 +34528,7 @@
         <v>51</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C224" s="2">
         <v>22</v>
@@ -34678,7 +34680,7 @@
         <v>52</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C225" s="2">
         <v>23</v>
@@ -34830,7 +34832,7 @@
         <v>53</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C226" s="2">
         <v>24</v>
@@ -34982,7 +34984,7 @@
         <v>54</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C227" s="2">
         <v>23</v>
@@ -35134,7 +35136,7 @@
         <v>55</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C228" s="2">
         <v>25</v>
@@ -35286,7 +35288,7 @@
         <v>56</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C229" s="2">
         <v>24</v>
@@ -35438,7 +35440,7 @@
         <v>57</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C230" s="2">
         <v>25</v>
@@ -35590,7 +35592,7 @@
         <v>58</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C231" s="2">
         <v>22</v>
@@ -35742,7 +35744,7 @@
         <v>59</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C232" s="2">
         <v>21</v>
@@ -35894,7 +35896,7 @@
         <v>60</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C233" s="2">
         <v>24</v>
@@ -36046,7 +36048,7 @@
         <v>61</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C234" s="2">
         <v>18</v>
@@ -36198,7 +36200,7 @@
         <v>62</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C235" s="2">
         <v>21</v>
@@ -36350,7 +36352,7 @@
         <v>63</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C236" s="2">
         <v>25</v>
@@ -36502,7 +36504,7 @@
         <v>64</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C237" s="2">
         <v>21</v>
@@ -36654,7 +36656,7 @@
         <v>65</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C238" s="2">
         <v>24</v>
@@ -36806,7 +36808,7 @@
         <v>66</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C239" s="2">
         <v>24</v>
@@ -36958,7 +36960,7 @@
         <v>67</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C240" s="2">
         <v>25</v>
@@ -37110,7 +37112,7 @@
         <v>68</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C241" s="2">
         <v>26</v>
@@ -37262,7 +37264,7 @@
         <v>69</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C242" s="2">
         <v>27</v>
@@ -37414,7 +37416,7 @@
         <v>70</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C243" s="2">
         <v>21</v>
@@ -37566,7 +37568,7 @@
         <v>71</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C244" s="2">
         <v>24</v>
@@ -37718,7 +37720,7 @@
         <v>72</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C245" s="2">
         <v>25</v>
@@ -37870,7 +37872,7 @@
         <v>73</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C246" s="2">
         <v>26</v>
@@ -38022,7 +38024,7 @@
         <v>74</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C247" s="2">
         <v>18</v>
@@ -38174,7 +38176,7 @@
         <v>75</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C248" s="2">
         <v>20</v>
@@ -38326,7 +38328,7 @@
         <v>76</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C249" s="2">
         <v>22</v>
@@ -38478,7 +38480,7 @@
         <v>77</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C250" s="2">
         <v>28</v>
@@ -38630,7 +38632,7 @@
         <v>78</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C251" s="2">
         <v>27</v>
@@ -38782,7 +38784,7 @@
         <v>79</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C252" s="2">
         <v>27</v>
@@ -38934,7 +38936,7 @@
         <v>80</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C253" s="2">
         <v>25</v>
@@ -39086,7 +39088,7 @@
         <v>81</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C254" s="2">
         <v>20</v>
@@ -39238,7 +39240,7 @@
         <v>82</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C255" s="2">
         <v>26</v>
@@ -39390,7 +39392,7 @@
         <v>83</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C256" s="2">
         <v>24</v>
@@ -39542,7 +39544,7 @@
         <v>84</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C257" s="2">
         <v>18</v>
@@ -39694,7 +39696,7 @@
         <v>85</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C258" s="2">
         <v>20</v>
@@ -39846,7 +39848,7 @@
         <v>86</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C259" s="2">
         <v>26</v>
@@ -39998,7 +40000,7 @@
         <v>87</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C260" s="2">
         <v>25</v>
@@ -40150,7 +40152,7 @@
         <v>88</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C261" s="2">
         <v>22</v>
@@ -40302,7 +40304,7 @@
         <v>89</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C262" s="2">
         <v>26</v>
@@ -40454,7 +40456,7 @@
         <v>90</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C263" s="2">
         <v>18</v>
@@ -40606,7 +40608,7 @@
         <v>91</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C264" s="2">
         <v>23</v>
@@ -40758,7 +40760,7 @@
         <v>92</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C265" s="2">
         <v>26</v>
@@ -40910,7 +40912,7 @@
         <v>93</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C266" s="2">
         <v>19</v>
@@ -41062,7 +41064,7 @@
         <v>1</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C267" s="2">
         <v>22</v>
@@ -41214,7 +41216,7 @@
         <v>2</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C268" s="2">
         <v>22</v>
@@ -41366,7 +41368,7 @@
         <v>3</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C269" s="2">
         <v>22</v>
@@ -41518,7 +41520,7 @@
         <v>4</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C270" s="2">
         <v>18</v>
@@ -41670,7 +41672,7 @@
         <v>5</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C271" s="2">
         <v>21</v>
@@ -41822,7 +41824,7 @@
         <v>6</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C272" s="2">
         <v>22</v>
@@ -41974,7 +41976,7 @@
         <v>7</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C273" s="2">
         <v>21</v>
@@ -42126,7 +42128,7 @@
         <v>8</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C274" s="2">
         <v>21</v>
@@ -42278,7 +42280,7 @@
         <v>9</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C275" s="2">
         <v>21</v>
@@ -42430,7 +42432,7 @@
         <v>10</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C276" s="2">
         <v>20</v>
@@ -42582,7 +42584,7 @@
         <v>11</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C277" s="2">
         <v>19</v>
@@ -42734,7 +42736,7 @@
         <v>12</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C278" s="2">
         <v>20</v>
@@ -42886,7 +42888,7 @@
         <v>13</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C279" s="2">
         <v>20</v>
@@ -43038,7 +43040,7 @@
         <v>14</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C280" s="2">
         <v>20</v>
@@ -43190,7 +43192,7 @@
         <v>15</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C281" s="2">
         <v>20</v>
@@ -43342,7 +43344,7 @@
         <v>16</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C282" s="2">
         <v>22</v>
@@ -43494,7 +43496,7 @@
         <v>17</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C283" s="2">
         <v>18</v>
@@ -43646,7 +43648,7 @@
         <v>18</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C284" s="2">
         <v>20</v>
@@ -43798,7 +43800,7 @@
         <v>19</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C285" s="2">
         <v>19</v>
@@ -43950,7 +43952,7 @@
         <v>20</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C286" s="2">
         <v>20</v>
@@ -44102,7 +44104,7 @@
         <v>21</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C287" s="2">
         <v>20</v>
@@ -44254,7 +44256,7 @@
         <v>22</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C288" s="2">
         <v>18</v>
@@ -44406,7 +44408,7 @@
         <v>23</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C289" s="2">
         <v>20</v>
@@ -44558,7 +44560,7 @@
         <v>24</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C290" s="2">
         <v>23</v>
@@ -44710,7 +44712,7 @@
         <v>25</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C291" s="2">
         <v>24</v>
@@ -44862,7 +44864,7 @@
         <v>26</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C292" s="2">
         <v>21</v>
@@ -45014,7 +45016,7 @@
         <v>27</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C293" s="2">
         <v>22</v>
@@ -45166,7 +45168,7 @@
         <v>28</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C294" s="2">
         <v>25</v>
@@ -45318,7 +45320,7 @@
         <v>29</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C295" s="2">
         <v>24</v>
@@ -45470,7 +45472,7 @@
         <v>30</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C296" s="2">
         <v>23</v>
@@ -45622,7 +45624,7 @@
         <v>31</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C297" s="2">
         <v>24</v>
@@ -45774,7 +45776,7 @@
         <v>32</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C298" s="2">
         <v>24</v>
@@ -45926,7 +45928,7 @@
         <v>33</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C299" s="2">
         <v>23</v>
@@ -46078,7 +46080,7 @@
         <v>34</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C300" s="2">
         <v>19</v>
@@ -46230,7 +46232,7 @@
         <v>35</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C301" s="2">
         <v>23</v>
@@ -46382,7 +46384,7 @@
         <v>36</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C302" s="2">
         <v>25</v>

--- a/BDTesis-DLA.xlsx
+++ b/BDTesis-DLA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\OLID JP\GitHub Repositorio\Practicando-R\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{685D3C37-A270-4322-9C55-760A955A96A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB376B90-D704-4E06-8A90-CF4A0EC289A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E572D2CA-CBE9-48EC-9257-4C40B3DF4F72}"/>
   </bookViews>
@@ -618,8 +618,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E9DA61E-90FB-4AB3-983D-FE90D47EE1BB}">
   <dimension ref="A1:AX302"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="AB265" workbookViewId="0">
+      <selection activeCell="AG272" sqref="AG272"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33515,7 +33515,7 @@
         <v>4</v>
       </c>
       <c r="S217" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T217" s="2">
         <v>3</v>
@@ -34269,7 +34269,7 @@
         <v>3</v>
       </c>
       <c r="Q222" s="2">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="R222" s="2">
         <v>3</v>
@@ -36278,7 +36278,7 @@
         <v>3</v>
       </c>
       <c r="AB235" s="2">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="AC235" s="2">
         <v>3</v>
@@ -43365,7 +43365,7 @@
         <v>3</v>
       </c>
       <c r="I282" s="2">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="J282" s="2">
         <v>3</v>
@@ -44209,7 +44209,7 @@
         <v>3</v>
       </c>
       <c r="AK287" s="2">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="AL287" s="2">
         <v>2</v>
@@ -46534,5 +46534,6 @@
   </sheetData>
   <autoFilter ref="A1:AX302" xr:uid="{D41AE0BE-DEBA-4802-9648-CDCB105183E6}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>